--- a/EmailDT.xlsx
+++ b/EmailDT.xlsx
@@ -43,16 +43,16 @@
     <x:t>text</x:t>
   </x:si>
   <x:si>
-    <x:t>09/07/2020 20:51:25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Utkarsha Patil" &lt;utkarsha529@gmail.com&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"utkarsha.patil@walsystems.com" &lt;utkarsha.patil@walsystems.com&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I missed my order Delivery</x:t>
+    <x:t>09/10/2020 23:58:35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Er. Dhawal Bharambe" &lt;dhawalbharambe@gmail.com&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"dhawal.bharambe@walsystems.com" &lt;dhawal.bharambe@walsystems.com&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Invoice</x:t>
   </x:si>
 </x:sst>
 </file>
